--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_18_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_18_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3402052.248128498</v>
+        <v>3495517.154947151</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10766958.07359804</v>
+        <v>10747230.11886604</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>957183.7825383864</v>
+        <v>881594.0812127446</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7550631.492626116</v>
+        <v>7568164.084974891</v>
       </c>
     </row>
     <row r="11">
@@ -1373,19 +1375,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>181.3202861354169</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2842774481106</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1467,7 +1469,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1543,7 +1545,7 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572803</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I13" t="n">
         <v>49.37728379124551</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1582,7 +1584,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231188</v>
+        <v>142.6682771558607</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2842774481106</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>120.800504961027</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>214.3095613653472</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2004,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2081,22 +2083,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231188</v>
+        <v>249.0416155939018</v>
       </c>
       <c r="G20" t="n">
-        <v>167.8777067803089</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2241,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D22" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2321,16 +2323,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G23" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H23" t="n">
         <v>247.6326277687279</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210278</v>
@@ -2378,10 +2380,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y23" t="n">
         <v>339.262802037461</v>
@@ -2476,25 +2478,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020905</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2572,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958333</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210282</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403102</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2623,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2716,22 +2718,22 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433751</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572828</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124481</v>
+        <v>49.3772837912456</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145483</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128494</v>
@@ -2776,7 +2778,7 @@
         <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335023</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
@@ -2956,19 +2958,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124571</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210287</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,19 +3195,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.1817752719621</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C35" t="n">
-        <v>276.720825379489</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D35" t="n">
-        <v>266.1309752291644</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E35" t="n">
-        <v>293.3783036807433</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F35" t="n">
-        <v>318.3239793501929</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G35" t="n">
-        <v>322.3696592619349</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H35" t="n">
-        <v>206.0556979958019</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.63569539665733</v>
+        <v>15.23748855099069</v>
       </c>
       <c r="T35" t="n">
-        <v>115.3659037481016</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U35" t="n">
-        <v>34.58595185517347</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V35" t="n">
-        <v>239.2001920786164</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W35" t="n">
-        <v>260.6889023258945</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X35" t="n">
-        <v>281.1790342869505</v>
+        <v>223.4985695684061</v>
       </c>
       <c r="Y35" t="n">
-        <v>297.6858722645351</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>85.88170694475215</v>
       </c>
       <c r="C37" t="n">
-        <v>78.69475470710933</v>
+        <v>73.29654786144269</v>
       </c>
       <c r="D37" t="n">
-        <v>60.06340662669385</v>
+        <v>54.66519978102721</v>
       </c>
       <c r="E37" t="n">
-        <v>57.88189625505066</v>
+        <v>52.48368940938403</v>
       </c>
       <c r="F37" t="n">
-        <v>56.86898163141274</v>
+        <v>51.4707747857461</v>
       </c>
       <c r="G37" t="n">
-        <v>77.47374186750972</v>
+        <v>72.07553502184308</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>50.80474167713564</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>31.63211227172853</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>101.2169589399234</v>
+        <v>95.81875209425675</v>
       </c>
       <c r="T37" t="n">
-        <v>130.9968828846507</v>
+        <v>125.5986760389841</v>
       </c>
       <c r="U37" t="n">
-        <v>197.6597718140943</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>163.5855769323095</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>197.9709319450725</v>
+        <v>195.0330462819489</v>
       </c>
       <c r="X37" t="n">
-        <v>137.1575889975186</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.0325869605763</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>294.1817752719621</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C38" t="n">
-        <v>276.720825379489</v>
+        <v>271.3226185338224</v>
       </c>
       <c r="D38" t="n">
-        <v>266.1309752291644</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E38" t="n">
-        <v>293.3783036807433</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F38" t="n">
-        <v>190.466825637983</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G38" t="n">
-        <v>322.3696592619349</v>
+        <v>316.9714524162683</v>
       </c>
       <c r="H38" t="n">
-        <v>206.0556979958019</v>
+        <v>200.6574911501353</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.63569539665733</v>
+        <v>15.23748855099069</v>
       </c>
       <c r="T38" t="n">
-        <v>115.3659037481016</v>
+        <v>109.967696902435</v>
       </c>
       <c r="U38" t="n">
-        <v>162.4431055673835</v>
+        <v>157.0448987217168</v>
       </c>
       <c r="V38" t="n">
-        <v>239.2001920786164</v>
+        <v>181.519727360073</v>
       </c>
       <c r="W38" t="n">
-        <v>260.6889023258945</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X38" t="n">
-        <v>281.1790342869505</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y38" t="n">
-        <v>297.6858722645351</v>
+        <v>292.2876654188684</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.27991379041879</v>
+        <v>85.88170694475215</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>73.29654786144269</v>
       </c>
       <c r="D40" t="n">
-        <v>60.06340662669385</v>
+        <v>57.12552096356998</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>51.4707747857461</v>
       </c>
       <c r="G40" t="n">
-        <v>77.47374186750972</v>
+        <v>72.07553502184308</v>
       </c>
       <c r="H40" t="n">
-        <v>56.20294852280227</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>7.800354018319588</v>
+        <v>2.402147172652953</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>31.63211227172853</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>101.2169589399234</v>
+        <v>95.81875209425675</v>
       </c>
       <c r="T40" t="n">
-        <v>130.9968828846507</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>197.6597718140943</v>
+        <v>192.2615649684277</v>
       </c>
       <c r="V40" t="n">
-        <v>163.5855769323095</v>
+        <v>158.1873700866429</v>
       </c>
       <c r="W40" t="n">
-        <v>197.9709319450725</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>137.1575889975186</v>
+        <v>131.759382151852</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.0325869605763</v>
+        <v>124.6343801149096</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>248.6886033966573</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D41" t="n">
-        <v>313.106111847757</v>
+        <v>271.9917699600475</v>
       </c>
       <c r="E41" t="n">
-        <v>340.3534402993358</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>365.2991159687855</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H41" t="n">
-        <v>253.0308346143945</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.61083201524988</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T41" t="n">
-        <v>162.3410403666942</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U41" t="n">
-        <v>209.418242185976</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>286.175328697209</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>307.6640389444871</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X41" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y41" t="n">
-        <v>344.6610088831276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E43" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F43" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G43" t="n">
-        <v>124.4488784861023</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>103.1780851413948</v>
+        <v>97.77987829572966</v>
       </c>
       <c r="I43" t="n">
-        <v>54.77549063691215</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.35522289712138</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S43" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>177.9720195032432</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>115.9373386665188</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V43" t="n">
-        <v>210.5607135509021</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>244.9460685636651</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y43" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>341.1569118905546</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C44" t="n">
-        <v>323.6959619980816</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>313.106111847757</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>340.3534402993358</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>365.2991159687855</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>369.3447958805275</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>253.0308346143945</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>247.7004158371095</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>233.0096925403086</v>
       </c>
       <c r="X44" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>344.6610088831276</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>124.4488784861023</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>103.1780851413948</v>
+        <v>97.77987829572861</v>
       </c>
       <c r="I46" t="n">
-        <v>54.77549063691215</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>66.84974868946914</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T46" t="n">
-        <v>177.9720195032432</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>244.6349084326869</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V46" t="n">
-        <v>210.5607135509021</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>244.9460685636651</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -5018,7 +5020,7 @@
         <v>2018.472742224994</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232655</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D11" t="n">
         <v>1386.143792573978</v>
@@ -5027,22 +5029,22 @@
         <v>1047.805172923807</v>
       </c>
       <c r="F11" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,16 +5053,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,19 +5071,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3167.077706941467</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2983.925902764278</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="W11" t="n">
-        <v>3026.328773681787</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="X11" t="n">
-        <v>2700.31264836878</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y11" t="n">
         <v>2357.622949341042</v>
@@ -5094,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5106,46 +5108,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998339</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
         <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337116</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5221,28 +5223,28 @@
         <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1799.045841247965</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232655</v>
+        <v>1477.532957255627</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>1166.71689159695</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>828.3782719467789</v>
       </c>
       <c r="F14" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
         <v>316.6460838753429</v>
@@ -5285,7 +5287,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5303,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>3056.683942306249</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2773.070687910752</v>
       </c>
       <c r="W14" t="n">
-        <v>3026.328773681787</v>
+        <v>2467.751665588711</v>
       </c>
       <c r="X14" t="n">
-        <v>2700.31264836878</v>
+        <v>2141.735540275704</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341042</v>
+        <v>1799.045841247965</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5434,16 +5436,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315245</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328075</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337103</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N16" t="n">
         <v>1550.274078843937</v>
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1522.736669656749</v>
+        <v>1707.656676566317</v>
       </c>
       <c r="C17" t="n">
-        <v>1201.223785664411</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D17" t="n">
-        <v>890.4077200057338</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E17" t="n">
-        <v>552.069100355563</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F17" t="n">
-        <v>188.5328285140288</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,13 +5515,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5540,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U17" t="n">
-        <v>3119.524977831081</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V17" t="n">
-        <v>2835.911723435584</v>
+        <v>2681.681523229103</v>
       </c>
       <c r="W17" t="n">
-        <v>2530.592701113543</v>
+        <v>2376.362500907062</v>
       </c>
       <c r="X17" t="n">
-        <v>2204.576575800536</v>
+        <v>2050.346375594055</v>
       </c>
       <c r="Y17" t="n">
-        <v>1861.886876772798</v>
+        <v>1707.656676566317</v>
       </c>
     </row>
     <row r="18">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052942</v>
+        <v>1785.73444130672</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254606</v>
+        <v>1664.247891326886</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611982</v>
+        <v>1561.580884862624</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268784</v>
+        <v>1461.117424228304</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770414</v>
+        <v>1361.677109678467</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998336</v>
+        <v>1241.42390600126</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657647</v>
+        <v>1142.656352167191</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>1092.780307933609</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315257</v>
+        <v>1184.408325632952</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328087</v>
+        <v>1434.900893834234</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337115</v>
+        <v>1797.966077535137</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885667</v>
+        <v>2188.628508387093</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843938</v>
+        <v>2576.542270345364</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016757</v>
+        <v>2922.377254518184</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702823</v>
+        <v>3201.49014020425</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107745</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813346</v>
+        <v>3283.224997314772</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588246</v>
+        <v>3138.988746089672</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105845</v>
+        <v>2964.671763607271</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179562</v>
+        <v>2723.018529680988</v>
       </c>
       <c r="V19" t="n">
-        <v>1489.515482921749</v>
+        <v>2515.783674423174</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832861</v>
+        <v>2273.816137334287</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882917</v>
+        <v>2093.276219384343</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874605</v>
+        <v>1919.933273188886</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1570.289398767135</v>
+        <v>1584.980773859709</v>
       </c>
       <c r="C20" t="n">
-        <v>1248.776514774797</v>
+        <v>1584.980773859709</v>
       </c>
       <c r="D20" t="n">
-        <v>937.9604491161197</v>
+        <v>1274.164708201032</v>
       </c>
       <c r="E20" t="n">
-        <v>599.6218294659488</v>
+        <v>935.8260885508608</v>
       </c>
       <c r="F20" t="n">
-        <v>236.0855576244147</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3167.077706941467</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U20" t="n">
-        <v>3167.077706941467</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>2883.464452545969</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="W20" t="n">
-        <v>2578.145430223929</v>
+        <v>2592.836805316503</v>
       </c>
       <c r="X20" t="n">
-        <v>2252.129304910922</v>
+        <v>2266.820680003496</v>
       </c>
       <c r="Y20" t="n">
-        <v>1909.439605883184</v>
+        <v>1924.130980975757</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052942</v>
+        <v>1785.734441306719</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254606</v>
+        <v>1664.247891326886</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611982</v>
+        <v>1561.580884862623</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268784</v>
+        <v>1461.117424228303</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770414</v>
+        <v>1361.677109678466</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998337</v>
+        <v>1241.423906001259</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657648</v>
+        <v>1142.65635216719</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>1092.780307933609</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315257</v>
+        <v>1184.408325632951</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328087</v>
+        <v>1434.900893834234</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337115</v>
+        <v>1797.966077535136</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885667</v>
+        <v>2188.628508387092</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843938</v>
+        <v>2576.542270345363</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016758</v>
+        <v>2922.377254518183</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702824</v>
+        <v>3201.490140204249</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107745</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813346</v>
+        <v>3283.224997314771</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588246</v>
+        <v>3138.988746089671</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105845</v>
+        <v>2964.67176360727</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179562</v>
+        <v>2723.018529680987</v>
       </c>
       <c r="V22" t="n">
-        <v>1489.515482921749</v>
+        <v>2515.783674423174</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832861</v>
+        <v>2273.816137334286</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882917</v>
+        <v>2093.276219384342</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874605</v>
+        <v>1919.933273188886</v>
       </c>
     </row>
     <row r="23">
@@ -5963,73 +5965,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D23" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K23" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L23" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M23" t="n">
-        <v>1755.817188486248</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N23" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O23" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P23" t="n">
-        <v>3518.923563871313</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
         <v>2372.257749805548</v>
@@ -6063,16 +6065,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L24" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502697999</v>
+        <v>2517.474464532007</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899663</v>
+        <v>2395.987914552174</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257039</v>
+        <v>2293.320908087911</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913841</v>
+        <v>2192.857447453591</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415471</v>
+        <v>2093.417132903754</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643394</v>
+        <v>1973.163929226546</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302705</v>
+        <v>1874.396375392477</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668915</v>
+        <v>1824.520331158896</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960314</v>
+        <v>1916.148348858238</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973144</v>
+        <v>2166.640917059521</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982172</v>
+        <v>2529.706100760424</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350173</v>
+        <v>2920.368531612379</v>
       </c>
       <c r="N25" t="n">
-        <v>1564.908879308444</v>
+        <v>3308.28229357065</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481264</v>
+        <v>3654.11727774347</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.85674916733</v>
+        <v>3933.230163429536</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572251</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277852</v>
+        <v>4014.96502054006</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052752</v>
+        <v>3870.72876931496</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570351</v>
+        <v>3696.411786832559</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644068</v>
+        <v>3454.758552906276</v>
       </c>
       <c r="V25" t="n">
-        <v>1504.150283386255</v>
+        <v>3247.523697648462</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297367</v>
+        <v>3005.556160559575</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347423</v>
+        <v>2825.016242609631</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519662</v>
+        <v>2651.673296414174</v>
       </c>
     </row>
     <row r="26">
@@ -6218,37 +6220,37 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557148</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910144</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.783593239423</v>
+        <v>1326.966459396848</v>
       </c>
       <c r="M26" t="n">
-        <v>1986.936041136908</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N26" t="n">
-        <v>2533.71485819569</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075027</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6257,10 +6259,10 @@
         <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6279,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697997</v>
+        <v>2517.474464532007</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899659</v>
+        <v>2395.987914552174</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257034</v>
+        <v>2293.320908087911</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913836</v>
+        <v>2192.857447453591</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415465</v>
+        <v>2093.417132903755</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643387</v>
+        <v>1973.163929226548</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302698</v>
+        <v>1874.396375392479</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>1824.520331158897</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>1916.148348858239</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>2166.640917059522</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>2529.706100760425</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>2920.36853161238</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>3308.282293570651</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>3654.117277743471</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>3933.230163429537</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>4014.96502054006</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>3870.72876931496</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>3696.411786832559</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>3454.758552906276</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>3247.523697648462</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>3005.556160559575</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>2825.016242609631</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>2651.673296414174</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1076.411957014866</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>1609.943861686791</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424367</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309627</v>
@@ -6503,10 +6505,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6539,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698003</v>
+        <v>2517.474464532007</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899667</v>
+        <v>2395.987914552174</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>2293.320908087911</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>2192.857447453591</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>2093.417132903754</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>1973.163929226547</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>1874.396375392478</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>1824.520331158896</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>1916.148348858238</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973148</v>
+        <v>2166.640917059522</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982175</v>
+        <v>2529.706100760424</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>2920.36853161238</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>3308.282293570651</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>3654.117277743471</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>3933.230163429537</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>4014.96502054006</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>3870.72876931496</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>3696.411786832559</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>3454.758552906276</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>3247.523697648462</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>3005.556160559575</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>2825.016242609631</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519668</v>
+        <v>2651.673296414174</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,55 +6688,55 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>1928.524582776558</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2433.836156782225</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>2259.383127501098</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>2110.448717839847</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>1951.211262834392</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>1804.676704861277</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>1668.313604693895</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>1577.811710331762</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>1558.804418733301</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>1652.481688223918</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>1890.745887204265</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>2257.44404751693</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
-        <v>2704.720372739246</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>3178.243416293701</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
-        <v>3589.204695711755</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>3899.704287187858</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>4057.345844834458</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>4057.201491426973</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>3927.763604920453</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
-        <v>3735.120604598309</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
-        <v>3507.052757732724</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>3271.900649500982</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W33" t="n">
-        <v>3017.66329277278</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>2809.811792567247</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>2602.051493802293</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>2517.474464532007</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>2395.987914552174</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>2293.320908087911</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913843</v>
+        <v>2192.857447453591</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>2093.417132903754</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>1973.163929226546</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>1874.396375392477</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>1824.520331158896</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>1916.148348858238</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>2166.640917059522</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>2529.706100760424</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>2920.36853161238</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>3308.282293570651</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>3654.117277743471</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>3933.230163429537</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>4014.96502054006</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>3870.72876931496</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>3696.411786832559</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>3454.758552906276</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>3247.523697648462</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>3005.556160559575</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>2825.016242609631</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>2651.673296414174</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1766.491349661806</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C35" t="n">
-        <v>1486.975364429999</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D35" t="n">
-        <v>1218.156197531853</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E35" t="n">
-        <v>921.8144766422135</v>
+        <v>905.4562740795875</v>
       </c>
       <c r="F35" t="n">
-        <v>600.2751035612106</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G35" t="n">
-        <v>274.6491851148116</v>
+        <v>269.1964509272696</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3304.76168484487</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T35" t="n">
-        <v>3188.230468937697</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U35" t="n">
-        <v>3153.295164033481</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V35" t="n">
-        <v>2911.678808398515</v>
+        <v>2804.34110503534</v>
       </c>
       <c r="W35" t="n">
-        <v>2648.356684837006</v>
+        <v>2546.471715661372</v>
       </c>
       <c r="X35" t="n">
-        <v>2364.33745828453</v>
+        <v>2320.715584784195</v>
       </c>
       <c r="Y35" t="n">
-        <v>2063.644658017323</v>
+        <v>2025.47551870453</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D36" t="n">
         <v>618.1564155387305</v>
@@ -7002,16 +7004,16 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H36" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7020,28 +7022,28 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>644.3810218987845</v>
+        <v>522.2180850649277</v>
       </c>
       <c r="C37" t="n">
-        <v>564.8913706794822</v>
+        <v>448.1811680331674</v>
       </c>
       <c r="D37" t="n">
-        <v>504.2212629757511</v>
+        <v>392.9637945169783</v>
       </c>
       <c r="E37" t="n">
-        <v>445.7547011019626</v>
+        <v>339.9499668307318</v>
       </c>
       <c r="F37" t="n">
-        <v>388.3112853126568</v>
+        <v>287.959285228968</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1895.342919531191</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1793.103567066622</v>
+        <v>1830.507929811466</v>
       </c>
       <c r="T37" t="n">
-        <v>1660.783483344753</v>
+        <v>1703.640580277138</v>
       </c>
       <c r="U37" t="n">
-        <v>1461.127148179001</v>
+        <v>1414.537713402782</v>
       </c>
       <c r="V37" t="n">
-        <v>1295.889191681719</v>
+        <v>1159.853225196895</v>
       </c>
       <c r="W37" t="n">
-        <v>1095.918553353363</v>
+        <v>962.8501481444216</v>
       </c>
       <c r="X37" t="n">
-        <v>957.3755341639499</v>
+        <v>734.8605972464043</v>
       </c>
       <c r="Y37" t="n">
-        <v>826.0294867290243</v>
+        <v>608.9672839990208</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1637.342709548463</v>
+        <v>1733.774944536554</v>
       </c>
       <c r="C38" t="n">
-        <v>1357.826724316656</v>
+        <v>1459.711693492289</v>
       </c>
       <c r="D38" t="n">
-        <v>1089.00755741851</v>
+        <v>1196.345260781685</v>
       </c>
       <c r="E38" t="n">
-        <v>792.6658365288702</v>
+        <v>905.4562740795875</v>
       </c>
       <c r="F38" t="n">
-        <v>600.2751035612106</v>
+        <v>589.3696351861265</v>
       </c>
       <c r="G38" t="n">
-        <v>274.6491851148116</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3304.76168484487</v>
+        <v>3310.214419032413</v>
       </c>
       <c r="T38" t="n">
-        <v>3188.230468937697</v>
+        <v>3199.135937312782</v>
       </c>
       <c r="U38" t="n">
-        <v>3024.146523920138</v>
+        <v>3040.504726482765</v>
       </c>
       <c r="V38" t="n">
-        <v>2782.530168285172</v>
+        <v>2857.151466523095</v>
       </c>
       <c r="W38" t="n">
-        <v>2519.208044723662</v>
+        <v>2599.282077149128</v>
       </c>
       <c r="X38" t="n">
-        <v>2235.188818171187</v>
+        <v>2320.715584784195</v>
       </c>
       <c r="Y38" t="n">
-        <v>1934.49601790398</v>
+        <v>2025.47551870453</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>733.8275536073891</v>
+        <v>619.6025238727337</v>
       </c>
       <c r="C40" t="n">
-        <v>564.8913706794822</v>
+        <v>545.5656068409735</v>
       </c>
       <c r="D40" t="n">
-        <v>504.2212629757511</v>
+        <v>487.863060413125</v>
       </c>
       <c r="E40" t="n">
-        <v>356.308169393358</v>
+        <v>339.9499668307319</v>
       </c>
       <c r="F40" t="n">
-        <v>209.4182218954476</v>
+        <v>287.9592852289682</v>
       </c>
       <c r="G40" t="n">
-        <v>131.1619169787712</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H40" t="n">
-        <v>74.39126190523351</v>
+        <v>68.93852771769147</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1895.342919531191</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1793.103567066622</v>
+        <v>1830.507929811466</v>
       </c>
       <c r="T40" t="n">
-        <v>1660.783483344753</v>
+        <v>1608.741314380992</v>
       </c>
       <c r="U40" t="n">
-        <v>1461.127148179001</v>
+        <v>1414.537713402782</v>
       </c>
       <c r="V40" t="n">
-        <v>1295.889191681719</v>
+        <v>1254.752491093042</v>
       </c>
       <c r="W40" t="n">
-        <v>1095.918553353363</v>
+        <v>965.3353210560811</v>
       </c>
       <c r="X40" t="n">
-        <v>957.3755341639499</v>
+        <v>832.2450360542103</v>
       </c>
       <c r="Y40" t="n">
-        <v>826.0294867290243</v>
+        <v>706.3517228068268</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1351.147977775893</v>
+        <v>1644.057218491951</v>
       </c>
       <c r="C41" t="n">
-        <v>1351.147977775893</v>
+        <v>1322.544334499613</v>
       </c>
       <c r="D41" t="n">
-        <v>1034.879177929674</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E41" t="n">
-        <v>691.0878240919612</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F41" t="n">
-        <v>322.098818062885</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G41" t="n">
-        <v>322.098818062885</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,16 +7411,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7436,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3257.312051896797</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T41" t="n">
-        <v>3093.33120304155</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U41" t="n">
-        <v>2881.797625075918</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V41" t="n">
-        <v>2592.731636492878</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W41" t="n">
-        <v>2281.959879983296</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X41" t="n">
-        <v>1950.491020482747</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y41" t="n">
-        <v>1602.348587267466</v>
+        <v>1983.207425608</v>
       </c>
     </row>
     <row r="42">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>797.6353891180886</v>
+        <v>759.4662498052955</v>
       </c>
       <c r="C43" t="n">
-        <v>670.696104950713</v>
+        <v>637.9796998254619</v>
       </c>
       <c r="D43" t="n">
-        <v>562.5763642989085</v>
+        <v>535.3126933611995</v>
       </c>
       <c r="E43" t="n">
-        <v>456.6601694770466</v>
+        <v>434.8492327268798</v>
       </c>
       <c r="F43" t="n">
-        <v>351.7671207396675</v>
+        <v>335.4089181770428</v>
       </c>
       <c r="G43" t="n">
-        <v>226.0611828749177</v>
+        <v>215.1557144998351</v>
       </c>
       <c r="H43" t="n">
-        <v>121.8408948533068</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>152.7959093543157</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K43" t="n">
-        <v>397.9442527783887</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6652117020815</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M43" t="n">
-        <v>1140.983417776827</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N43" t="n">
-        <v>1523.552954957888</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O43" t="n">
-        <v>1864.043714353498</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P43" t="n">
-        <v>2137.812375262355</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q43" t="n">
-        <v>2256.583831890066</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R43" t="n">
-        <v>2208.750273408125</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S43" t="n">
-        <v>2059.061287995483</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T43" t="n">
-        <v>1879.29157132554</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U43" t="n">
-        <v>1762.183148430067</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V43" t="n">
-        <v>1549.495558984711</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W43" t="n">
-        <v>1302.075287708282</v>
+        <v>1247.547945832863</v>
       </c>
       <c r="X43" t="n">
-        <v>1116.082635570796</v>
+        <v>1067.008027882919</v>
       </c>
       <c r="Y43" t="n">
-        <v>937.286955187797</v>
+        <v>893.6650816874619</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2051.189147350246</v>
+        <v>1654.93647038346</v>
       </c>
       <c r="C44" t="n">
-        <v>1724.223529170366</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D44" t="n">
-        <v>1407.954729324146</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E44" t="n">
-        <v>1064.163375486434</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="F44" t="n">
-        <v>695.1743694573572</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G44" t="n">
-        <v>322.098818062885</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,16 +7648,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7673,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V44" t="n">
-        <v>3075.403381369666</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="W44" t="n">
-        <v>3075.403381369666</v>
+        <v>2662.792501840253</v>
       </c>
       <c r="X44" t="n">
-        <v>2743.934521869117</v>
+        <v>2336.776376527247</v>
       </c>
       <c r="Y44" t="n">
-        <v>2395.792088653837</v>
+        <v>1994.086677499508</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7727,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>797.6353891180886</v>
+        <v>1785.73444130672</v>
       </c>
       <c r="C46" t="n">
-        <v>670.696104950713</v>
+        <v>1664.247891326886</v>
       </c>
       <c r="D46" t="n">
-        <v>562.5763642989085</v>
+        <v>1561.580884862624</v>
       </c>
       <c r="E46" t="n">
-        <v>456.6601694770466</v>
+        <v>1461.117424228304</v>
       </c>
       <c r="F46" t="n">
-        <v>351.7671207396675</v>
+        <v>1361.677109678467</v>
       </c>
       <c r="G46" t="n">
-        <v>226.0611828749177</v>
+        <v>1241.423906001259</v>
       </c>
       <c r="H46" t="n">
-        <v>121.8408948533068</v>
+        <v>1142.65635216719</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>1092.780307933609</v>
       </c>
       <c r="J46" t="n">
-        <v>152.7959093543157</v>
+        <v>1184.408325632951</v>
       </c>
       <c r="K46" t="n">
-        <v>397.9442527783887</v>
+        <v>1434.900893834234</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6652117020815</v>
+        <v>1797.966077535137</v>
       </c>
       <c r="M46" t="n">
-        <v>1140.983417776827</v>
+        <v>2188.628508387092</v>
       </c>
       <c r="N46" t="n">
-        <v>1523.552954957888</v>
+        <v>2576.542270345363</v>
       </c>
       <c r="O46" t="n">
-        <v>1864.043714353498</v>
+        <v>2922.377254518183</v>
       </c>
       <c r="P46" t="n">
-        <v>2137.812375262355</v>
+        <v>3201.49014020425</v>
       </c>
       <c r="Q46" t="n">
-        <v>2256.583831890066</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R46" t="n">
-        <v>2256.583831890066</v>
+        <v>3283.224997314772</v>
       </c>
       <c r="S46" t="n">
-        <v>2189.058833213835</v>
+        <v>3138.988746089672</v>
       </c>
       <c r="T46" t="n">
-        <v>2009.289116543892</v>
+        <v>2964.671763607271</v>
       </c>
       <c r="U46" t="n">
-        <v>1762.183148430067</v>
+        <v>2723.018529680988</v>
       </c>
       <c r="V46" t="n">
-        <v>1549.495558984711</v>
+        <v>2515.783674423174</v>
       </c>
       <c r="W46" t="n">
-        <v>1302.075287708282</v>
+        <v>2273.816137334287</v>
       </c>
       <c r="X46" t="n">
-        <v>1116.082635570796</v>
+        <v>2093.276219384343</v>
       </c>
       <c r="Y46" t="n">
-        <v>937.286955187797</v>
+        <v>1919.933273188886</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>126.4474417343263</v>
+        <v>131.4051496618629</v>
       </c>
       <c r="K8" t="n">
-        <v>138.2609085106438</v>
+        <v>145.6912275408196</v>
       </c>
       <c r="L8" t="n">
-        <v>134.25037594608</v>
+        <v>143.4683437367659</v>
       </c>
       <c r="M8" t="n">
-        <v>117.3900797665269</v>
+        <v>127.6468450459102</v>
       </c>
       <c r="N8" t="n">
-        <v>114.6291614808275</v>
+        <v>125.0518919455492</v>
       </c>
       <c r="O8" t="n">
-        <v>121.7110275420273</v>
+        <v>131.5529163660245</v>
       </c>
       <c r="P8" t="n">
-        <v>138.7270419401046</v>
+        <v>147.1268663512408</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.8375710642347</v>
+        <v>159.145489377727</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>94.31915626445232</v>
+        <v>97.27193314239368</v>
       </c>
       <c r="K9" t="n">
-        <v>82.26219359121399</v>
+        <v>87.30895958699725</v>
       </c>
       <c r="L9" t="n">
-        <v>63.821225457344</v>
+        <v>70.6072251482816</v>
       </c>
       <c r="M9" t="n">
-        <v>54.92396776279061</v>
+        <v>62.84290932718746</v>
       </c>
       <c r="N9" t="n">
-        <v>41.82345497452174</v>
+        <v>49.95198735858212</v>
       </c>
       <c r="O9" t="n">
-        <v>60.70452800096814</v>
+        <v>68.14054709468175</v>
       </c>
       <c r="P9" t="n">
-        <v>68.24908526718714</v>
+        <v>74.21714616091589</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.04613680891984</v>
+        <v>100.0356274665312</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>95.4880770751848</v>
+        <v>98.53226637261274</v>
       </c>
       <c r="L10" t="n">
-        <v>91.98398679505961</v>
+        <v>95.87950101807498</v>
       </c>
       <c r="M10" t="n">
-        <v>93.69302200495012</v>
+        <v>97.80029556172241</v>
       </c>
       <c r="N10" t="n">
-        <v>83.52831650138054</v>
+        <v>87.53792827318058</v>
       </c>
       <c r="O10" t="n">
-        <v>97.67019137277308</v>
+        <v>101.3737168185015</v>
       </c>
       <c r="P10" t="n">
-        <v>102.8282380638155</v>
+        <v>105.9972438864275</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>400.2032972882109</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>167.7369666428355</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>274.8351763665433</v>
       </c>
       <c r="M26" t="n">
-        <v>78.40458911672692</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,7 +9892,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>21.74982042514796</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>277.220684154414</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,22 +10357,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>343.5485285966304</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>277.220684154414</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>14.65944718340869</v>
+        <v>14.71785991911952</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>22.69974920489253</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>5.981554650709768</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>217.2326319672582</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>5.981554650709768</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>243.1460840738339</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>66.46756048619514</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>110.8592935292171</v>
       </c>
       <c r="G20" t="n">
-        <v>196.0688822545519</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.236344360222574e-12</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -25208,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>127.85715371221</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>52.28225787287786</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25400,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>127.85715371221</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25448,7 +25450,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>52.28225787287678</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>92.46830849389735</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>323.6959619980816</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>35.71613504204282</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>369.3447958805275</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>128.6975697661682</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25874,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25913,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.61083201524988</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>162.3410403666942</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>209.418242185976</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>38.47491286009947</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>307.6640389444871</v>
+        <v>69.25613955851188</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>47.35522289712138</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>81.34234686904681</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>693698.590534347</v>
+        <v>697246.0189044396</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>603490.52403485</v>
+        <v>603490.5240348498</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>603490.52403485</v>
+        <v>603490.5240348498</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673232.5338022042</v>
+        <v>673232.5338022043</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>639398.8552025351</v>
+        <v>644061.0705268634</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>639398.8552025352</v>
+        <v>644061.0705268636</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>596434.5339128707</v>
+        <v>603490.52403485</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>596434.5339128706</v>
+        <v>603490.52403485</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491128</v>
+        <v>798794.4302491121</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491127</v>
+        <v>798794.4302491121</v>
       </c>
       <c r="D2" t="n">
-        <v>798844.3560117577</v>
+        <v>798839.8225993389</v>
       </c>
       <c r="E2" t="n">
+        <v>745417.7346425963</v>
+      </c>
+      <c r="F2" t="n">
+        <v>745417.7346425966</v>
+      </c>
+      <c r="G2" t="n">
+        <v>745417.7346425966</v>
+      </c>
+      <c r="H2" t="n">
+        <v>745417.7346425963</v>
+      </c>
+      <c r="I2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="J2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="K2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="L2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="M2" t="n">
+        <v>796458.0995841625</v>
+      </c>
+      <c r="N2" t="n">
+        <v>796458.0995841625</v>
+      </c>
+      <c r="O2" t="n">
+        <v>745417.7346425961</v>
+      </c>
+      <c r="P2" t="n">
         <v>745417.7346425962</v>
-      </c>
-      <c r="F2" t="n">
-        <v>745417.7346425962</v>
-      </c>
-      <c r="G2" t="n">
-        <v>745417.7346425964</v>
-      </c>
-      <c r="H2" t="n">
-        <v>745417.7346425964</v>
-      </c>
-      <c r="I2" t="n">
-        <v>800515.7256176764</v>
-      </c>
-      <c r="J2" t="n">
-        <v>800515.7256176758</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.7256176764</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176766</v>
-      </c>
-      <c r="M2" t="n">
-        <v>790592.7319180716</v>
-      </c>
-      <c r="N2" t="n">
-        <v>790592.7319180722</v>
-      </c>
-      <c r="O2" t="n">
-        <v>736540.8438439767</v>
-      </c>
-      <c r="P2" t="n">
-        <v>736540.843843977</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>137042.0579810804</v>
+        <v>124598.2186766192</v>
       </c>
       <c r="E3" t="n">
-        <v>1032788.844765725</v>
+        <v>1044462.42533391</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902281</v>
+        <v>48646.25967902299</v>
       </c>
       <c r="J3" t="n">
         <v>37580.10929487403</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>194861.9769234551</v>
+        <v>199180.5423999884</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="C4" t="n">
-        <v>441649.2499958206</v>
+        <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>396083.1450688237</v>
+        <v>400194.6115182834</v>
       </c>
       <c r="E4" t="n">
-        <v>58825.50137861086</v>
+        <v>58825.50137861087</v>
       </c>
       <c r="F4" t="n">
-        <v>58825.50137861086</v>
+        <v>58825.50137861085</v>
       </c>
       <c r="G4" t="n">
-        <v>58825.50137861086</v>
+        <v>58825.50137861082</v>
       </c>
       <c r="H4" t="n">
-        <v>58825.50137861086</v>
+        <v>58825.50137861082</v>
       </c>
       <c r="I4" t="n">
-        <v>84858.15940173087</v>
+        <v>84858.1594017309</v>
       </c>
       <c r="J4" t="n">
         <v>84858.15940173082</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173085</v>
+        <v>84858.1594017309</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173079</v>
+        <v>84858.15940173088</v>
       </c>
       <c r="M4" t="n">
-        <v>85155.06935245983</v>
+        <v>88588.66807031285</v>
       </c>
       <c r="N4" t="n">
-        <v>85155.06935245983</v>
+        <v>88588.66807031288</v>
       </c>
       <c r="O4" t="n">
-        <v>53615.62358604903</v>
+        <v>58825.50137861089</v>
       </c>
       <c r="P4" t="n">
-        <v>53615.62358604903</v>
+        <v>58825.50137861084</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26475,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>37116.00264636911</v>
+        <v>36799.24498379324</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178177</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178176</v>
@@ -26485,13 +26487,13 @@
         <v>78255.49332178176</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26502,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>81750.82423086186</v>
+        <v>82204.64608217021</v>
       </c>
       <c r="N5" t="n">
-        <v>81750.82423086186</v>
+        <v>82204.64608217022</v>
       </c>
       <c r="O5" t="n">
-        <v>77801.6714704734</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="P5" t="n">
-        <v>77801.6714704734</v>
+        <v>78255.49332178176</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>323517.5802532922</v>
+        <v>323517.5802532916</v>
       </c>
       <c r="C6" t="n">
-        <v>323517.5802532921</v>
+        <v>323517.5802532916</v>
       </c>
       <c r="D6" t="n">
-        <v>228603.1503154845</v>
+        <v>237247.7474206431</v>
       </c>
       <c r="E6" t="n">
-        <v>-424452.1048235212</v>
+        <v>-436125.6853917063</v>
       </c>
       <c r="F6" t="n">
+        <v>608336.739942204</v>
+      </c>
+      <c r="G6" t="n">
+        <v>608336.739942204</v>
+      </c>
+      <c r="H6" t="n">
         <v>608336.7399422037</v>
       </c>
-      <c r="G6" t="n">
-        <v>608336.7399422039</v>
-      </c>
-      <c r="H6" t="n">
-        <v>608336.7399422039</v>
-      </c>
       <c r="I6" t="n">
-        <v>577633.3648621166</v>
+        <v>577633.3648621163</v>
       </c>
       <c r="J6" t="n">
-        <v>588699.5152462649</v>
+        <v>588699.5152462651</v>
       </c>
       <c r="K6" t="n">
         <v>626279.6245411395</v>
       </c>
       <c r="L6" t="n">
-        <v>626279.6245411397</v>
+        <v>626279.6245411392</v>
       </c>
       <c r="M6" t="n">
-        <v>428824.8614112949</v>
+        <v>426484.2430316911</v>
       </c>
       <c r="N6" t="n">
-        <v>623686.8383347505</v>
+        <v>625664.7854316795</v>
       </c>
       <c r="O6" t="n">
-        <v>605123.5487874544</v>
+        <v>608336.7399422035</v>
       </c>
       <c r="P6" t="n">
-        <v>605123.5487874546</v>
+        <v>608336.7399422036</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="N2" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="O2" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P2" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>160.0184700169316</v>
+        <v>145.488302008864</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26759,7 +26761,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26820,16 +26822,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,13 +26934,13 @@
         <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>160.0184700169316</v>
+        <v>145.488302008864</v>
       </c>
       <c r="E3" t="n">
-        <v>929.7582305763669</v>
+        <v>944.2883985844343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063214</v>
+        <v>182.9350058063221</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>332.8867050059746</v>
+        <v>333.4849244355731</v>
       </c>
       <c r="I8" t="n">
-        <v>185.6754390565255</v>
+        <v>187.9273960500171</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>109.4600316408438</v>
+        <v>113.1293006504389</v>
       </c>
       <c r="S8" t="n">
-        <v>194.361091152031</v>
+        <v>195.6921713670414</v>
       </c>
       <c r="T8" t="n">
-        <v>220.2798461369992</v>
+        <v>220.5355478875734</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2941896812984</v>
+        <v>251.2988627001552</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.9993264918535</v>
+        <v>137.0305800607765</v>
       </c>
       <c r="H9" t="n">
-        <v>108.9112869631259</v>
+        <v>109.213130641935</v>
       </c>
       <c r="I9" t="n">
-        <v>77.54620842091589</v>
+        <v>78.62226331585298</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>78.78782036434423</v>
+        <v>80.72828317870464</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2899803441991</v>
+        <v>165.8705016792384</v>
       </c>
       <c r="T9" t="n">
-        <v>198.777398751939</v>
+        <v>198.9033725670278</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9187379578592</v>
+        <v>225.9207941137094</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.7024214617069</v>
+        <v>167.7286234040165</v>
       </c>
       <c r="H10" t="n">
-        <v>159.661630479955</v>
+        <v>159.8945895670352</v>
       </c>
       <c r="I10" t="n">
-        <v>146.7727519958483</v>
+        <v>147.5607158609415</v>
       </c>
       <c r="J10" t="n">
-        <v>72.95813681631742</v>
+        <v>74.81061413760827</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.99925427913772</v>
+        <v>64.19330964835592</v>
       </c>
       <c r="R10" t="n">
-        <v>164.3187790377638</v>
+        <v>165.496913643795</v>
       </c>
       <c r="S10" t="n">
-        <v>218.9878208726697</v>
+        <v>219.4444492672839</v>
       </c>
       <c r="T10" t="n">
-        <v>226.7126602330691</v>
+        <v>226.8246139865739</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3032898348499</v>
+        <v>286.3047190317031</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859142</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859148</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859136</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859165</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859165</v>
+        <v>46.97513661859348</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185925</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859298</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859148</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C35" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D35" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E35" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F35" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G35" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H35" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T35" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U35" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V35" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W35" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X35" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y35" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30143,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C37" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D37" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E37" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F37" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G37" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -30189,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.3000403983188</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T37" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U37" t="n">
-        <v>88.55206639151851</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>88.55206639151851</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>88.55206639151851</v>
+        <v>91.48995205464215</v>
       </c>
       <c r="X37" t="n">
-        <v>88.55206639151851</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C38" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D38" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="E38" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="F38" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G38" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H38" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T38" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="U38" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V38" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W38" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="X38" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y38" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="D40" t="n">
-        <v>88.55206639151851</v>
+        <v>91.48995205464237</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="G40" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="H40" t="n">
-        <v>88.55206639151851</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.3000403983188</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="T40" t="n">
-        <v>88.55206639151851</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="V40" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="W40" t="n">
-        <v>88.55206639151851</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
       <c r="Y40" t="n">
-        <v>88.55206639151851</v>
+        <v>93.95027323718514</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C41" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D41" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E41" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F41" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G41" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H41" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T41" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U41" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V41" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W41" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X41" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y41" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6432903317263576</v>
+        <v>0.5848775960155332</v>
       </c>
       <c r="H8" t="n">
-        <v>6.588097109792562</v>
+        <v>5.989877680194081</v>
       </c>
       <c r="I8" t="n">
-        <v>24.80045051388043</v>
+        <v>22.54849352038887</v>
       </c>
       <c r="J8" t="n">
-        <v>54.59846279236</v>
+        <v>49.64075486482341</v>
       </c>
       <c r="K8" t="n">
-        <v>81.82894253433673</v>
+        <v>74.39862350416094</v>
       </c>
       <c r="L8" t="n">
-        <v>101.5160390239073</v>
+        <v>92.29807123322134</v>
       </c>
       <c r="M8" t="n">
-        <v>112.9561534607459</v>
+        <v>102.6993881813626</v>
       </c>
       <c r="N8" t="n">
-        <v>114.7839021157634</v>
+        <v>104.3611716510417</v>
       </c>
       <c r="O8" t="n">
-        <v>108.3871838796594</v>
+        <v>98.54529505566225</v>
       </c>
       <c r="P8" t="n">
-        <v>92.50595381516496</v>
+        <v>84.10612940402876</v>
       </c>
       <c r="Q8" t="n">
-        <v>69.46811881021475</v>
+        <v>63.16020049672245</v>
       </c>
       <c r="R8" t="n">
-        <v>40.40908630030585</v>
+        <v>36.73981729071077</v>
       </c>
       <c r="S8" t="n">
-        <v>14.65897843421439</v>
+        <v>13.32789821920398</v>
       </c>
       <c r="T8" t="n">
-        <v>2.816003427132132</v>
+        <v>2.560301676557998</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0514632265381086</v>
+        <v>0.04679020768124265</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3441906713571736</v>
+        <v>0.3129371024341603</v>
       </c>
       <c r="H9" t="n">
-        <v>3.324157273370598</v>
+        <v>3.022313594561496</v>
       </c>
       <c r="I9" t="n">
-        <v>11.85042443049918</v>
+        <v>10.7743695355621</v>
       </c>
       <c r="J9" t="n">
-        <v>32.51847040221438</v>
+        <v>29.56569352427302</v>
       </c>
       <c r="K9" t="n">
-        <v>55.57924538314501</v>
+        <v>50.53247938736175</v>
       </c>
       <c r="L9" t="n">
-        <v>74.73315432253018</v>
+        <v>67.94715463159258</v>
       </c>
       <c r="M9" t="n">
-        <v>87.21006615922771</v>
+        <v>79.29112459483086</v>
       </c>
       <c r="N9" t="n">
-        <v>89.51825710881157</v>
+        <v>81.38972472475119</v>
       </c>
       <c r="O9" t="n">
-        <v>81.8917164434763</v>
+        <v>74.45569734976269</v>
       </c>
       <c r="P9" t="n">
-        <v>65.7253221471431</v>
+        <v>59.75726125341436</v>
       </c>
       <c r="Q9" t="n">
-        <v>43.93563727710168</v>
+        <v>39.94614661949036</v>
       </c>
       <c r="R9" t="n">
-        <v>21.37001378829891</v>
+        <v>19.42955097393849</v>
       </c>
       <c r="S9" t="n">
-        <v>6.393190759638725</v>
+        <v>5.812669424599421</v>
       </c>
       <c r="T9" t="n">
-        <v>1.387329942882642</v>
+        <v>1.26135612779383</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02264412311560354</v>
+        <v>0.02058796726540529</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2885578967518438</v>
+        <v>0.2623559544422137</v>
       </c>
       <c r="H10" t="n">
-        <v>2.565542027484577</v>
+        <v>2.332582940404411</v>
       </c>
       <c r="I10" t="n">
-        <v>8.677722931409997</v>
+        <v>7.889759066316757</v>
       </c>
       <c r="J10" t="n">
-        <v>20.40104330035536</v>
+        <v>18.54856597906451</v>
       </c>
       <c r="K10" t="n">
-        <v>33.52518109535058</v>
+        <v>30.48099179792264</v>
       </c>
       <c r="L10" t="n">
-        <v>42.90068948617868</v>
+        <v>39.00517526316331</v>
       </c>
       <c r="M10" t="n">
-        <v>45.23276194265493</v>
+        <v>41.12548838588265</v>
       </c>
       <c r="N10" t="n">
-        <v>44.15722796385264</v>
+        <v>40.14761619205261</v>
       </c>
       <c r="O10" t="n">
-        <v>40.78634707906972</v>
+        <v>37.08282163334128</v>
       </c>
       <c r="P10" t="n">
-        <v>34.89976598533208</v>
+        <v>31.73076016272009</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.16278897255667</v>
+        <v>21.96873360333846</v>
       </c>
       <c r="R10" t="n">
-        <v>12.97461233940563</v>
+        <v>11.79647773337444</v>
       </c>
       <c r="S10" t="n">
-        <v>5.028777164302586</v>
+        <v>4.572148769688396</v>
       </c>
       <c r="T10" t="n">
-        <v>1.232929195212423</v>
+        <v>1.12097544170764</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01573952164100968</v>
+        <v>0.01431032478775713</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31761,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31913,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32798,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33506,7 +33508,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33740,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34372,7 +34374,7 @@
         <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623188</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574995</v>
@@ -34445,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637031</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165765</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629122</v>
@@ -35814,7 +35816,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861315</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
         <v>366.7325087887907</v>
@@ -36051,10 +36053,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412311</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
         <v>281.932207763703</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L22" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120762</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36297,7 +36299,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564853</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>939.1244131184377</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36373,13 +36375,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>418.531271446555</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36446,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
         <v>366.7325087887907</v>
@@ -36525,7 +36527,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
@@ -36534,7 +36536,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564853</v>
+        <v>125.3693751564871</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923323</v>
+        <v>730.4252907588755</v>
       </c>
       <c r="M26" t="n">
-        <v>617.3257049469538</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>477.3399348174801</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,16 +36846,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737858</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629126</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,7 +37001,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37075,22 +37077,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>882.4696444268571</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737858</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37238,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37306,7 +37308,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865553999</v>
+        <v>337.1912865553995</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37388,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37549,7 +37551,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.15534638599217</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K43" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>389.2103091664098</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P43" t="n">
-        <v>276.5340009180364</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923316</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.15534638599217</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>389.2103091664098</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>276.5340009180364</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
